--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Fall.103020.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Fall.103020.xlsx_with_dialog_acts.xlsx
@@ -769,12 +769,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1197,12 +1197,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1579,12 +1579,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1923,12 +1923,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2217,12 +2217,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2301,12 +2301,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2599,12 +2599,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4465,12 +4465,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4763,12 +4763,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4973,12 +4973,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5737,12 +5737,12 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5779,12 +5779,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5867,12 +5867,12 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6081,12 +6081,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6375,12 +6375,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6879,12 +6879,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6921,12 +6921,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6967,12 +6967,12 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7093,12 +7093,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7223,12 +7223,12 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7265,12 +7265,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7307,12 +7307,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7349,12 +7349,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7945,12 +7945,12 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7987,12 +7987,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8155,12 +8155,12 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8533,12 +8533,12 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8701,12 +8701,12 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8911,12 +8911,12 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10003,12 +10003,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10087,12 +10087,12 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10129,12 +10129,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10511,12 +10511,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -10725,12 +10725,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -10935,12 +10935,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11191,12 +11191,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11405,12 +11405,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11619,12 +11619,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12251,12 +12251,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12923,12 +12923,12 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12965,12 +12965,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13091,12 +13091,12 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13557,12 +13557,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13977,12 +13977,12 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15235,12 +15235,12 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15315,12 +15315,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15515,12 +15515,12 @@
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15755,12 +15755,12 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15875,12 +15875,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17317,12 +17317,12 @@
       <c r="H402" t="inlineStr"/>
       <c r="I402" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
